--- a/spells.xlsx
+++ b/spells.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD6BDAD-B3C6-4BDC-AB8E-3E2634BE708E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1DA177-87FD-47A3-AF47-D300CA9A7CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="20820" windowHeight="17410" xr2:uid="{2D27DA81-DA24-44BF-847C-DE4CC15F63BF}"/>
+    <workbookView xWindow="11840" yWindow="680" windowWidth="20820" windowHeight="17410" activeTab="2" xr2:uid="{2D27DA81-DA24-44BF-847C-DE4CC15F63BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cantrips" sheetId="2" r:id="rId1"/>
+    <sheet name="Cantrip" sheetId="2" r:id="rId1"/>
     <sheet name="Level 1" sheetId="3" r:id="rId2"/>
     <sheet name="Level 2" sheetId="4" r:id="rId3"/>
     <sheet name="Level 3" sheetId="5" r:id="rId4"/>
@@ -1918,9 +1918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DB1BCE-CAD3-4D6E-8597-BC01698D7BBB}">
   <dimension ref="A1:I539"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7445,8 +7445,8 @@
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:E94"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8840,10 +8840,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BEEB3E-F76A-4F51-AEAA-46706C43855A}">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B53" sqref="B53"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
